--- a/Casos de teste.xlsx
+++ b/Casos de teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SENAI\Desktop\escola_pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7146867C-2FF5-425E-834C-FF3815CA3881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0334174-AD3C-4E43-91C6-824F14DADDE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{36B0AE2D-B5AA-4AF2-B1EF-B709ABFA3659}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>ARQUIVOS</t>
   </si>
@@ -132,9 +132,6 @@
     <t>["ola", 3.0]</t>
   </si>
   <si>
-    <t>ValueError("nota invalida")</t>
-  </si>
-  <si>
     <t>Enviando uma nota negativa</t>
   </si>
   <si>
@@ -142,6 +139,15 @@
   </si>
   <si>
     <t>ValueError("limite da nota [0, 10]")</t>
+  </si>
+  <si>
+    <t>Enviando uma string ao inves de uma lista</t>
+  </si>
+  <si>
+    <t>"ola"</t>
+  </si>
+  <si>
+    <t>TypeError("nota invalida")</t>
   </si>
 </sst>
 </file>
@@ -429,8 +435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AB97D0C-C16D-419C-AB92-2787552CF9E4}" name="Tabela1" displayName="Tabela1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E12" xr:uid="{F04696D4-533B-465C-98F8-24964DEDF300}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AB97D0C-C16D-419C-AB92-2787552CF9E4}" name="Tabela1" displayName="Tabela1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E13" xr:uid="{F04696D4-533B-465C-98F8-24964DEDF300}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D552236B-5E0E-4C1C-88DF-1987DF500669}" name="ARQUIVOS" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{012712CA-CA8D-402B-B35B-EA94D2B2875B}" name="FUNÇÕES" dataDxfId="3"/>
@@ -739,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76C5C-8774-4C8F-B37E-20C0FF3D8BD3}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,13 +938,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,13 +955,30 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
